--- a/Documents/Aufwandsabschätzung.xlsx
+++ b/Documents/Aufwandsabschätzung.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\Documents\Studium\LVs\ITP\GithubRep\ProjectWebshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farha\Documents\Studium\LVs\ITP\GithubRep\ProjectWebshop\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C798A4E-0A64-4E77-BF37-C16AA2BFF998}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8EBFB-B7E3-4D43-9C73-8E3696535FF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{90549448-03D6-4568-8C61-369EA64CFD0F}"/>
+    <workbookView xWindow="31830" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{90549448-03D6-4568-8C61-369EA64CFD0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Id</t>
   </si>
@@ -46,6 +47,105 @@
   </si>
   <si>
     <t>Estimated in h</t>
+  </si>
+  <si>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend 1</t>
+  </si>
+  <si>
+    <t>Backend 2</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Problem Fixes</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>SUMME:</t>
+  </si>
+  <si>
+    <t>Ganze Gruppe:</t>
+  </si>
+  <si>
+    <t>Summe - ID 5-8:</t>
+  </si>
+  <si>
+    <t>Wird aufgeteilt</t>
+  </si>
+  <si>
+    <t>pro Person</t>
+  </si>
+  <si>
+    <t>&gt; Menu</t>
+  </si>
+  <si>
+    <t>&gt; Header, Footer</t>
+  </si>
+  <si>
+    <t>&gt; Cart</t>
+  </si>
+  <si>
+    <t>&gt; Homepage</t>
+  </si>
+  <si>
+    <t>&gt; Conatact Us</t>
+  </si>
+  <si>
+    <t>&gt; About Us</t>
+  </si>
+  <si>
+    <t>Aufgabe</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Schätzung</t>
+  </si>
+  <si>
+    <t>Aufwand (Stunden)</t>
+  </si>
+  <si>
+    <t>dmin</t>
+  </si>
+  <si>
+    <t>dnorm</t>
+  </si>
+  <si>
+    <t>dmax</t>
+  </si>
+  <si>
+    <t>dmittel</t>
+  </si>
+  <si>
+    <t>Summe</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>&gt; Create DB</t>
+  </si>
+  <si>
+    <t>&gt; Connect DB</t>
+  </si>
+  <si>
+    <t>&gt; Product Management System</t>
+  </si>
+  <si>
+    <t>&gt; Product Table DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -61,15 +161,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -79,15 +197,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -106,15 +215,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -429,113 +682,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E265BF-C17A-4A39-B00C-D4DF7EC24102}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="A3:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="42.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="13"/>
+    <col min="3" max="3" width="70.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="13"/>
+    <col min="6" max="8" width="11.42578125" style="4"/>
+    <col min="9" max="9" width="17.28515625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="14">
+        <f>75*5</f>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="C6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="15">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="C8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="C10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15">
+        <v>15</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <f>SUM(D12:D23)*5</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="C15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15">
+        <v>25</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="J16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="14">
+        <f>D4+D6+D8+D10+H12</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="C18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="15">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="15">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F4:H11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="H12:H23"/>
+    <mergeCell ref="F12:G23"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27F31E7-FC11-442B-AC9F-5C246B622B8D}">
+  <dimension ref="A5:H26"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="49.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>16</v>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>